--- a/proyectos.xlsx
+++ b/proyectos.xlsx
@@ -6,13 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PROYECTOS" r:id="rId3" sheetId="1"/>
+    <sheet name="Proyectos" r:id="rId3" sheetId="1"/>
+    <sheet name="Graficos" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>CODIGO</t>
   </si>
@@ -35,6 +36,9 @@
     <t>FECHA_FIN</t>
   </si>
   <si>
+    <t>% DE AVANCE</t>
+  </si>
+  <si>
     <t>RESPONSABLE</t>
   </si>
   <si>
@@ -44,7 +48,7 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>PROY001</t>
+    <t>PROY001QWE</t>
   </si>
   <si>
     <t>Migracion del proyecto</t>
@@ -62,28 +66,16 @@
     <t>14/08/2025</t>
   </si>
   <si>
-    <t>Finalizado</t>
-  </si>
-  <si>
-    <t>PROY03</t>
-  </si>
-  <si>
-    <t>DESPLIEGUE EN AWS</t>
-  </si>
-  <si>
-    <t>Proyectode despliegue n aws</t>
-  </si>
-  <si>
-    <t>15/09/2024</t>
-  </si>
-  <si>
-    <t>01/01/2025</t>
-  </si>
-  <si>
-    <t>06/15/2025</t>
-  </si>
-  <si>
-    <t>No Iniciado</t>
+    <t>81 %</t>
+  </si>
+  <si>
+    <t>En Proceso</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Porc. Avance</t>
   </si>
 </sst>
 </file>
@@ -126,24 +118,199 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr anchor="t" rtlCol="false"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Porcentaje de Avance por Proyecto</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="false"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Avance (%)</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graficos!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Migracion del proyecto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graficos!$B$2</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>81.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr anchor="t" rtlCol="false"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Proyectos</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+        </c:title>
+        <c:numFmt sourceLinked="true" formatCode=""/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="false"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr anchor="t" rtlCol="false"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Porcentaje de Avance</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="false"/>
+        </c:title>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="0"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="true"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="5334000" cy="2857500"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.2421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.75390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.78125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="32.7578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="17.35546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.94140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.74609375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.80859375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.13671875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="7.81640625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.49609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.80859375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -177,72 +344,76 @@
       <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>150.0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="J2" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="I2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="J2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="J3" t="b" s="0">
+      <c r="K2" t="b" s="0">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>81.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>